--- a/biology/Botanique/Panic_pied-de-coq/Panic_pied-de-coq.xlsx
+++ b/biology/Botanique/Panic_pied-de-coq/Panic_pied-de-coq.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Panic pied-de-coq est un nom vernaculaire ou vulgaire ambigu désignant trois espèces de graminées différentes, du genre Echinochloa :
-Echinochloa colonum (Linnaeus) Link[1]
-Echinochloa crus-galli (Linnaeus) Palisot de Beauvois[2]
-Echinochloa crus-pavonis (Kunth) Schultes[3]</t>
+Echinochloa colonum (Linnaeus) Link
+Echinochloa crus-galli (Linnaeus) Palisot de Beauvois
+Echinochloa crus-pavonis (Kunth) Schultes</t>
         </is>
       </c>
     </row>
